--- a/Enunciado e Ficheiros/TestesCR.xlsx
+++ b/Enunciado e Ficheiros/TestesCR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Armazenamento\GitHub\NeuralNetwork\Enunciado e Ficheiros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9E1A7-B4C3-4D77-9D02-5B2E90F6BFF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01398250-B16E-4E1F-9E53-872834496FFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="44">
   <si>
     <t>Número de camadas escondidas</t>
   </si>
@@ -118,13 +118,52 @@
   </si>
   <si>
     <t>purelin, purelin</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Conf5</t>
+  </si>
+  <si>
+    <t>Conf6</t>
+  </si>
+  <si>
+    <t>Conf7</t>
+  </si>
+  <si>
+    <t>Conf8</t>
+  </si>
+  <si>
+    <t>Conf9</t>
+  </si>
+  <si>
+    <t>Conf10</t>
+  </si>
+  <si>
+    <t>Conf11</t>
+  </si>
+  <si>
+    <t>Conf12</t>
+  </si>
+  <si>
+    <t>Conf13</t>
+  </si>
+  <si>
+    <t>Conf14</t>
+  </si>
+  <si>
+    <t>Conf15</t>
+  </si>
+  <si>
+    <t>Conf16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,15 +204,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,19 +301,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -640,22 +666,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:10" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3">
@@ -664,17 +690,17 @@
       <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
@@ -682,8 +708,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3">
@@ -699,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -710,8 +736,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
@@ -727,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
@@ -738,8 +764,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
@@ -755,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
@@ -766,23 +792,24 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -798,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -809,8 +836,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -837,8 +864,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -865,8 +892,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
@@ -894,22 +921,22 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="3">
@@ -936,8 +963,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="3">
@@ -953,7 +980,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
@@ -964,8 +991,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="3">
@@ -981,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>10</v>
@@ -992,8 +1019,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="3">
@@ -1009,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -1020,8 +1047,341 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D27" s="11"/>
+    <row r="26" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
